--- a/dependencies/brucella/abortus3/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/brucella/abortus3/script_dependents/Filtered_Regions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\abortus3\script_dependents\python\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/brucella/abortus3/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A4A77D-5610-5647-8F7F-869FD4CBD490}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2916" yWindow="456" windowWidth="25884" windowHeight="16704" tabRatio="500"/>
+    <workbookView xWindow="2920" yWindow="460" windowWidth="25880" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CP007682" sheetId="1" r:id="rId1"/>
-    <sheet name="CP007683" sheetId="2" r:id="rId2"/>
+    <sheet name="NZ_CP007682.1" sheetId="1" r:id="rId1"/>
+    <sheet name="NZ_CP007683.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1092,8 +1093,8 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="171"/>
-    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -1433,23 +1434,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.796875" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,567 +1467,567 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1993809</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1988247</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1797347</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1789738</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1788711</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1788703</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1788639</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1788626</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1788620</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1788612</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1788605</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1788575</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1788574</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1788565</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1788550</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1788543</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1788542</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1788532</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1784319</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1784176</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1764071</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1436132</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1392248</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1392233</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1392086</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1392074</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1391983</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1391977</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1391860</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1391848</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1391845</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1391830</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1391661</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1391570</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1391555</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1391509</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1391305</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1391299</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1391231</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1391013</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1391011</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1391006</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1391005</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1391003</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1390990</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1390983</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1390966</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1390960</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1390888</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1390885</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1390873</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1390867</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1390863</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1320783</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1320532</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1320519</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1320345</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1320317</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1320300</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1320296</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1320226</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1320180</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1182505</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1182176</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>928374</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>928371</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>928353</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>928193</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>928131</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>928125</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>928119</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>928114</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>926808</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>926805</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>926790</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>926788</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>926641</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>926377</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>926267</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>926084</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>926038</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>817584</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>817582</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>817550</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>817540</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>817536</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>817489</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>787275</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>787224</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>787143</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>558194</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>557901</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>509303</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>509301</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>508776</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>508525</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>508512</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>508338</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>508219</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>398793</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>398608</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>398600</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>398585</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>398394</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>398169</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>398167</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>53488</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -2041,24 +2042,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.796875" style="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2075,62 +2076,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>377866</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>399229</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>399259</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>653789</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>659352</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>930423</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>930452</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>930453</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>396847</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>396875</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>396868</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>396870</v>
       </c>
